--- a/data/trans_dic/P26-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P26-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,36; 26,58</t>
+          <t>18,06; 25,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>24,47; 34,2</t>
+          <t>24,26; 33,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,96; 22,93</t>
+          <t>15,09; 23,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,53; 12,54</t>
+          <t>6,24; 12,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,6; 33,03</t>
+          <t>21,98; 33,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>26,26; 37,44</t>
+          <t>25,99; 38,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,67; 28,09</t>
+          <t>18,49; 28,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,67; 13,14</t>
+          <t>7,62; 12,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>20,96; 27,37</t>
+          <t>20,98; 27,52</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>26,38; 33,57</t>
+          <t>26,27; 33,87</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,88; 23,8</t>
+          <t>17,78; 23,98</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,7; 11,8</t>
+          <t>7,71; 11,93</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,91; 28,31</t>
+          <t>18,46; 27,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,33; 31,4</t>
+          <t>21,85; 31,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,43; 24,59</t>
+          <t>15,9; 24,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,12; 13,31</t>
+          <t>6,14; 12,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>31,11; 41,17</t>
+          <t>31,08; 41,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,48; 38,14</t>
+          <t>26,68; 37,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,5; 27,79</t>
+          <t>18,3; 27,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,76; 16,28</t>
+          <t>9,73; 16,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,16; 33,38</t>
+          <t>26,2; 33,18</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>25,49; 32,59</t>
+          <t>25,88; 32,84</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>18,84; 24,75</t>
+          <t>18,38; 24,76</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,53; 13,81</t>
+          <t>8,66; 13,91</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>24,23; 32,14</t>
+          <t>24,11; 32,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,29; 37,8</t>
+          <t>30,06; 37,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,82; 30,39</t>
+          <t>21,7; 30,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,67; 78,39</t>
+          <t>7,57; 80,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>36,01; 51,97</t>
+          <t>36,08; 52,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>36,16; 49,8</t>
+          <t>37,28; 49,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,03; 28,99</t>
+          <t>15,41; 30,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,38; 13,27</t>
+          <t>5,45; 12,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>28,28; 35,27</t>
+          <t>28,3; 35,48</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>33,28; 40,0</t>
+          <t>33,24; 40,14</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>21,52; 28,6</t>
+          <t>21,28; 28,45</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,75; 74,3</t>
+          <t>7,8; 72,03</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,18; 30,45</t>
+          <t>25,31; 30,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30,56; 36,63</t>
+          <t>30,4; 36,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,52; 29,79</t>
+          <t>24,53; 29,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,96; 16,29</t>
+          <t>10,85; 16,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>38,05; 45,86</t>
+          <t>37,76; 45,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,68; 45,83</t>
+          <t>38,28; 45,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,74; 33,7</t>
+          <t>26,62; 33,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,45; 18,83</t>
+          <t>7,5; 19,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>30,56; 34,94</t>
+          <t>30,81; 35,35</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>34,62; 39,38</t>
+          <t>34,56; 39,3</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>26,14; 30,44</t>
+          <t>26,15; 30,39</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,38; 16,45</t>
+          <t>9,39; 16,35</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>27,46; 37,72</t>
+          <t>27,16; 37,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>28,68; 37,15</t>
+          <t>28,61; 37,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20,62; 28,25</t>
+          <t>20,62; 27,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,66; 17,78</t>
+          <t>10,55; 17,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>39,66; 48,74</t>
+          <t>40,48; 49,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>37,15; 44,53</t>
+          <t>37,12; 44,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>26,72; 33,72</t>
+          <t>27,03; 33,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,17; 16,66</t>
+          <t>9,94; 16,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>36,13; 43,05</t>
+          <t>36,45; 43,26</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>35,26; 40,73</t>
+          <t>35,02; 40,62</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>25,15; 30,35</t>
+          <t>25,07; 30,1</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,09; 16,21</t>
+          <t>11,08; 16,3</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>39,5; 50,96</t>
+          <t>39,71; 51,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>37,08; 49,33</t>
+          <t>36,86; 48,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>29,04; 41,69</t>
+          <t>29,53; 41,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,59; 25,51</t>
+          <t>8,11; 24,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>29,83; 35,2</t>
+          <t>29,93; 35,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>35,02; 41,19</t>
+          <t>34,85; 41,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>22,08; 27,36</t>
+          <t>22,24; 27,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,79; 15,93</t>
+          <t>9,68; 16,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>32,61; 37,58</t>
+          <t>32,75; 37,83</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>36,33; 41,67</t>
+          <t>36,12; 41,78</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>24,54; 29,61</t>
+          <t>24,42; 29,54</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>10,44; 16,18</t>
+          <t>10,59; 16,33</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>26,89; 30,37</t>
+          <t>26,86; 30,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>31,15; 34,59</t>
+          <t>31,17; 34,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>23,65; 26,62</t>
+          <t>23,53; 26,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,17; 38,56</t>
+          <t>11,18; 41,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>35,32; 38,81</t>
+          <t>35,23; 38,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>36,99; 40,38</t>
+          <t>36,98; 40,43</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>25,18; 28,34</t>
+          <t>25,01; 28,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,14; 14,29</t>
+          <t>10,04; 14,28</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>31,65; 34,09</t>
+          <t>31,63; 34,14</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>34,67; 37,27</t>
+          <t>34,67; 37,06</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>24,91; 27,11</t>
+          <t>24,79; 27,02</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>11,77; 27,65</t>
+          <t>11,85; 25,32</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tienen algún familiar que fuma habitualmente en casa</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>96011</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>115664</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>71606</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>41987</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>76146</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>92642</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>72911</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>41540</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>172156</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>208306</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>144517</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>83527</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>79791; 113978</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>97816; 136082</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>57457; 89908</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>28990; 56448</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>60904; 91986</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>76284; 112215</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>58688; 90113</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>31547; 53461</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>150836; 197860</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>182995; 235902</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>124163; 167434</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>67801; 104888</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>75550</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>107996</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>71349</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>37603</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>126931</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>103442</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>79557</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>45712</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>202482</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>211439</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>150906</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>83316</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>61057; 91850</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>88009; 127616</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>56485; 85654</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>25610; 54168</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>108947; 144421</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>86205; 121314</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>62604; 94536</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>34955; 57744</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>178540; 226091</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>187878; 238346</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>128176; 172679</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>67247; 107966</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>145156</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>205505</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>125572</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>276948</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>68195</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>105349</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>32936</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>12833</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>213351</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>310854</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>158508</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>289781</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>124088; 164724</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>182712; 230592</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>105826; 147199</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>47703; 506699</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>56147; 81335</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>89635; 119916</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>23597; 46015</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8105; 19196</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>189702; 237828</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>281901; 340441</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>136376; 182335</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>60719; 560796</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>498</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>320506</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>368912</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>290738</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>123969</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>277927</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>313051</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>231168</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>131256</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>598432</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>681963</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>521906</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>255225</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>290889; 350213</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>336007; 401971</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>264476; 320135</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>100704; 153330</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>251338; 303803</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>285318; 340573</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>205089; 254462</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>69243; 178272</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>559105; 641664</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>639604; 727338</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>483370; 561841</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>173885; 302677</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>102360</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>162822</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>135162</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>58518</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>228820</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>297756</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>208010</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>106382</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>331180</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>460578</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>343171</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>164900</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>86095; 118557</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>140920; 185565</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>115341; 155932</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>44516; 74743</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>209475; 254419</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>269261; 326164</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>185720; 232855</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>76733; 127419</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>304179; 360972</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>426544; 494784</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>312516; 375127</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>132287; 194576</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>131787</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>113012</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>97756</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>34736</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>367737</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>389224</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>248407</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>82990</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>499524</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>502236</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>346163</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>117726</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>115892; 149047</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>97324; 127997</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>82962; 115167</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>18479; 56905</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>336711; 398276</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>357893; 422279</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>222470; 276962</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>64714; 107222</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>463964; 535907</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>466336; 539402</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>312851; 378446</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>94986; 146469</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>854</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1013</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>743</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1123</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1214</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>839</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>594</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>2227</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1582</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>883</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>871369</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1073912</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>792183</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>573762</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1145756</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1301463</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>872990</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>420714</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>2017125</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>2375375</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1665173</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>994475</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>817906; 921824</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1020993; 1129024</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>739412; 843983</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>345463; 1289217</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1089181; 1197981</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1240534; 1356262</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>818088; 919717</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>329842; 469362</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1941066; 2094859</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>2298569; 2457377</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1589391; 1732406</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>755238; 1614244</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P26-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P26-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
